--- a/Code/Results/Cases/Case_0_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_247/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.018304344779157</v>
+        <v>2.728779965065642</v>
       </c>
       <c r="D2">
-        <v>6.620229661256154</v>
+        <v>9.95505111298154</v>
       </c>
       <c r="E2">
-        <v>10.61239528769859</v>
+        <v>13.89494703328383</v>
       </c>
       <c r="F2">
-        <v>28.85219515414981</v>
+        <v>29.25823648110417</v>
       </c>
       <c r="G2">
-        <v>37.87341623851967</v>
+        <v>30.1911326577861</v>
       </c>
       <c r="H2">
-        <v>10.51728261889964</v>
+        <v>13.72557788070845</v>
       </c>
       <c r="I2">
-        <v>19.01896752500931</v>
+        <v>19.95349761985225</v>
       </c>
       <c r="J2">
-        <v>6.384824624882668</v>
+        <v>9.686377412883518</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>20.05235905720541</v>
+        <v>21.27759823122737</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.857039250758611</v>
+        <v>2.666799860447807</v>
       </c>
       <c r="D3">
-        <v>6.462129323808076</v>
+        <v>9.954949846502856</v>
       </c>
       <c r="E3">
-        <v>10.20636324410625</v>
+        <v>13.86112943064488</v>
       </c>
       <c r="F3">
-        <v>27.26030740263421</v>
+        <v>28.95767149847613</v>
       </c>
       <c r="G3">
-        <v>35.42990448592807</v>
+        <v>29.49286781126834</v>
       </c>
       <c r="H3">
-        <v>10.11321037569586</v>
+        <v>13.68904849605218</v>
       </c>
       <c r="I3">
-        <v>18.00358273448992</v>
+        <v>19.77431705042589</v>
       </c>
       <c r="J3">
-        <v>6.235949303479275</v>
+        <v>9.688278086992334</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>18.99382329058982</v>
+        <v>21.09485627290016</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.753346876056175</v>
+        <v>2.627431768047288</v>
       </c>
       <c r="D4">
-        <v>6.367076552053392</v>
+        <v>9.956579151903831</v>
       </c>
       <c r="E4">
-        <v>9.956490643516076</v>
+        <v>13.84336193971557</v>
       </c>
       <c r="F4">
-        <v>26.25594742751549</v>
+        <v>28.77966669272912</v>
       </c>
       <c r="G4">
-        <v>33.86835228270282</v>
+        <v>29.06527682824506</v>
       </c>
       <c r="H4">
-        <v>9.864287591452085</v>
+        <v>13.66951148769116</v>
       </c>
       <c r="I4">
-        <v>17.36442663110326</v>
+        <v>19.66886519832054</v>
       </c>
       <c r="J4">
-        <v>6.146908840304341</v>
+        <v>9.691131607468559</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>18.32816807732667</v>
+        <v>20.98749649895068</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.709930193269794</v>
+        <v>2.611069552182935</v>
       </c>
       <c r="D5">
-        <v>6.328886422871284</v>
+        <v>9.957669060315016</v>
       </c>
       <c r="E5">
-        <v>9.854659493346475</v>
+        <v>13.83687981959222</v>
       </c>
       <c r="F5">
-        <v>25.8403364379205</v>
+        <v>28.70885334558064</v>
       </c>
       <c r="G5">
-        <v>33.21693920657467</v>
+        <v>28.89160399499856</v>
       </c>
       <c r="H5">
-        <v>9.762778365619264</v>
+        <v>13.66228266299906</v>
       </c>
       <c r="I5">
-        <v>17.10031926337342</v>
+        <v>19.62708502643778</v>
       </c>
       <c r="J5">
-        <v>6.111247485312934</v>
+        <v>9.692718850239771</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>18.05327615779908</v>
+        <v>20.94500837609291</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.702651258575527</v>
+        <v>2.608333649158011</v>
       </c>
       <c r="D6">
-        <v>6.322578938775917</v>
+        <v>9.957875779935625</v>
       </c>
       <c r="E6">
-        <v>9.83775439066337</v>
+        <v>13.83584939071642</v>
       </c>
       <c r="F6">
-        <v>25.77095740532553</v>
+        <v>28.69720128737304</v>
       </c>
       <c r="G6">
-        <v>33.10787442546764</v>
+        <v>28.86280889360314</v>
       </c>
       <c r="H6">
-        <v>9.745922751498192</v>
+        <v>13.66112671683065</v>
       </c>
       <c r="I6">
-        <v>17.05625427117024</v>
+        <v>19.62022071728637</v>
       </c>
       <c r="J6">
-        <v>6.105364391627552</v>
+        <v>9.693008050396317</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>18.0074217265355</v>
+        <v>20.93803069423352</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.752766022986707</v>
+        <v>2.627212380297049</v>
       </c>
       <c r="D7">
-        <v>6.366559253275626</v>
+        <v>9.956592125435105</v>
       </c>
       <c r="E7">
-        <v>9.955117147258372</v>
+        <v>13.84327144362124</v>
       </c>
       <c r="F7">
-        <v>26.25036730603511</v>
+        <v>28.77870459204133</v>
       </c>
       <c r="G7">
-        <v>33.85962758738851</v>
+        <v>29.06293190951466</v>
       </c>
       <c r="H7">
-        <v>9.862918702051301</v>
+        <v>13.66941102414877</v>
       </c>
       <c r="I7">
-        <v>17.36087910448864</v>
+        <v>19.66829685213405</v>
       </c>
       <c r="J7">
-        <v>6.146425338674002</v>
+        <v>9.691151294850247</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>18.32447502819154</v>
+        <v>20.9869183243332</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.963677718189086</v>
+        <v>2.707687640181533</v>
       </c>
       <c r="D8">
-        <v>6.565318774935504</v>
+        <v>9.954665546593931</v>
       </c>
       <c r="E8">
-        <v>10.47259086615172</v>
+        <v>13.88266783122267</v>
       </c>
       <c r="F8">
-        <v>28.30914140556975</v>
+        <v>29.15329252787406</v>
       </c>
       <c r="G8">
-        <v>37.0437622042538</v>
+        <v>29.950302168238</v>
       </c>
       <c r="H8">
-        <v>10.37820560952627</v>
+        <v>13.71238573299217</v>
       </c>
       <c r="I8">
-        <v>18.67228608560891</v>
+        <v>19.89079580457227</v>
       </c>
       <c r="J8">
-        <v>6.333017074689848</v>
+        <v>9.686682972881471</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>19.6908084789536</v>
+        <v>21.21361027950495</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.339762392014267</v>
+        <v>2.854662956744316</v>
       </c>
       <c r="D9">
-        <v>6.969579337927343</v>
+        <v>9.964275670941229</v>
       </c>
       <c r="E9">
-        <v>11.47761199451967</v>
+        <v>13.98346104558476</v>
       </c>
       <c r="F9">
-        <v>32.11775253144933</v>
+        <v>29.9361084707968</v>
       </c>
       <c r="G9">
-        <v>42.81747306852087</v>
+        <v>31.68738879936571</v>
       </c>
       <c r="H9">
-        <v>11.37700402919465</v>
+        <v>13.8193383253815</v>
       </c>
       <c r="I9">
-        <v>21.10900330445735</v>
+        <v>20.36128806603421</v>
       </c>
       <c r="J9">
-        <v>6.716553357526386</v>
+        <v>9.69128245322317</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>22.23465122632573</v>
+        <v>21.6945572092241</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.592900570135118</v>
+        <v>2.955520451787607</v>
       </c>
       <c r="D10">
-        <v>7.273507493216192</v>
+        <v>9.979444865072566</v>
       </c>
       <c r="E10">
-        <v>12.20422737727706</v>
+        <v>14.07149579450354</v>
       </c>
       <c r="F10">
-        <v>34.76252830440124</v>
+        <v>30.53555718835969</v>
       </c>
       <c r="G10">
-        <v>46.81852508120299</v>
+        <v>32.94627397956579</v>
       </c>
       <c r="H10">
-        <v>12.09798671128304</v>
+        <v>13.91133742855725</v>
       </c>
       <c r="I10">
-        <v>22.9020701574562</v>
+        <v>20.72490527758725</v>
       </c>
       <c r="J10">
-        <v>7.007655839283348</v>
+        <v>9.702772822597744</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>24.0104435711218</v>
+        <v>22.06723566228217</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.703025682569808</v>
+        <v>2.999759994391921</v>
       </c>
       <c r="D11">
-        <v>7.412928717274377</v>
+        <v>9.988091451713284</v>
       </c>
       <c r="E11">
-        <v>12.53134290468665</v>
+        <v>14.11448837401471</v>
       </c>
       <c r="F11">
-        <v>35.93092614583598</v>
+        <v>30.81242098004964</v>
       </c>
       <c r="G11">
-        <v>48.56781543318612</v>
+        <v>33.51218979878003</v>
       </c>
       <c r="H11">
-        <v>12.4223370835617</v>
+        <v>13.95600390532045</v>
       </c>
       <c r="I11">
-        <v>23.77168449878261</v>
+        <v>20.89357776281312</v>
       </c>
       <c r="J11">
-        <v>7.141863981665211</v>
+        <v>9.709750526752845</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>24.91099990436171</v>
+        <v>22.24033131613683</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.744006840130637</v>
+        <v>3.016269201105819</v>
       </c>
       <c r="D12">
-        <v>7.465867320854463</v>
+        <v>9.99161515712877</v>
       </c>
       <c r="E12">
-        <v>12.65466980240419</v>
+        <v>14.13118312209874</v>
       </c>
       <c r="F12">
-        <v>36.3683347161928</v>
+        <v>30.91776706014782</v>
       </c>
       <c r="G12">
-        <v>49.22021957899879</v>
+        <v>33.7252850667158</v>
       </c>
       <c r="H12">
-        <v>12.5445900952379</v>
+        <v>13.97331327431802</v>
       </c>
       <c r="I12">
-        <v>24.09567632065687</v>
+        <v>20.95786339543769</v>
       </c>
       <c r="J12">
-        <v>7.192926126009813</v>
+        <v>9.712643302057842</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>25.24977125361464</v>
+        <v>22.30633505977262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.735212813971864</v>
+        <v>3.012724581529373</v>
       </c>
       <c r="D13">
-        <v>7.454460030975235</v>
+        <v>9.990845198871178</v>
       </c>
       <c r="E13">
-        <v>12.62813401308823</v>
+        <v>14.12756933111594</v>
       </c>
       <c r="F13">
-        <v>36.27435514181233</v>
+        <v>30.89505801903289</v>
       </c>
       <c r="G13">
-        <v>49.0801548354812</v>
+        <v>33.67944830912114</v>
       </c>
       <c r="H13">
-        <v>12.5182867394885</v>
+        <v>13.96956797943543</v>
       </c>
       <c r="I13">
-        <v>24.02613314549887</v>
+        <v>20.94400085894364</v>
       </c>
       <c r="J13">
-        <v>7.181918490618139</v>
+        <v>9.712009173622972</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>25.17704951483904</v>
+        <v>22.29210058217868</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.706411652678408</v>
+        <v>3.001123133745236</v>
       </c>
       <c r="D14">
-        <v>7.417281268591119</v>
+        <v>9.988376360225654</v>
       </c>
       <c r="E14">
-        <v>12.54150023392132</v>
+        <v>14.11585361043715</v>
       </c>
       <c r="F14">
-        <v>35.96701304135381</v>
+        <v>30.82107831877407</v>
       </c>
       <c r="G14">
-        <v>48.6216886690392</v>
+        <v>33.52974669752561</v>
       </c>
       <c r="H14">
-        <v>12.43240658657628</v>
+        <v>13.95742009621922</v>
       </c>
       <c r="I14">
-        <v>23.79844525107933</v>
+        <v>20.8988586244736</v>
       </c>
       <c r="J14">
-        <v>7.146060151337445</v>
+        <v>9.709983505264406</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>24.93897859258984</v>
+        <v>22.24575266440345</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.688676341745809</v>
+        <v>2.99398501318458</v>
       </c>
       <c r="D15">
-        <v>7.394526158688232</v>
+        <v>9.98689655637731</v>
       </c>
       <c r="E15">
-        <v>12.48836236854872</v>
+        <v>14.10873107781528</v>
       </c>
       <c r="F15">
-        <v>35.77810063811481</v>
+        <v>30.77582637344956</v>
       </c>
       <c r="G15">
-        <v>48.33956662729516</v>
+        <v>33.43788660025945</v>
       </c>
       <c r="H15">
-        <v>12.37972692247995</v>
+        <v>13.9500303268308</v>
       </c>
       <c r="I15">
-        <v>23.65829170988336</v>
+        <v>20.8712598241902</v>
       </c>
       <c r="J15">
-        <v>7.124126798992066</v>
+        <v>9.708775302607048</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549381</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>24.79245205224954</v>
+        <v>22.21742096087996</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.585602589316354</v>
+        <v>2.952595627114936</v>
       </c>
       <c r="D16">
-        <v>7.264417194384197</v>
+        <v>9.978914788577089</v>
       </c>
       <c r="E16">
-        <v>12.18277582493661</v>
+        <v>14.0687446273984</v>
       </c>
       <c r="F16">
-        <v>34.68546684134781</v>
+        <v>30.51753921407916</v>
       </c>
       <c r="G16">
-        <v>46.70279318402722</v>
+        <v>32.90913378270817</v>
       </c>
       <c r="H16">
-        <v>12.07671199039504</v>
+        <v>13.90847420835358</v>
       </c>
       <c r="I16">
-        <v>22.84448884775808</v>
+        <v>20.71394298549198</v>
       </c>
       <c r="J16">
-        <v>6.998919436322361</v>
+        <v>9.702351936432436</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>23.9586135852518</v>
+        <v>22.05599035625912</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.521083121593992</v>
+        <v>2.926778821510825</v>
       </c>
       <c r="D17">
-        <v>7.184878557800903</v>
+        <v>9.974464323503957</v>
       </c>
       <c r="E17">
-        <v>11.99438839207363</v>
+        <v>14.04496227410564</v>
       </c>
       <c r="F17">
-        <v>34.00622708797608</v>
+        <v>30.36008846342321</v>
       </c>
       <c r="G17">
-        <v>45.68065310065511</v>
+        <v>32.582859400511</v>
       </c>
       <c r="H17">
-        <v>11.88985190082854</v>
+        <v>13.88369529259143</v>
       </c>
       <c r="I17">
-        <v>22.33565828674344</v>
+        <v>20.61822981597834</v>
       </c>
       <c r="J17">
-        <v>6.922552786803114</v>
+        <v>9.698858949691031</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.9381421901699</v>
       </c>
       <c r="O17">
-        <v>23.50198769474112</v>
+        <v>21.95783059923031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.483499617647232</v>
+        <v>2.911775614143865</v>
       </c>
       <c r="D18">
-        <v>7.139240671749936</v>
+        <v>9.972068990275975</v>
       </c>
       <c r="E18">
-        <v>11.8857125030947</v>
+        <v>14.03156109064439</v>
       </c>
       <c r="F18">
-        <v>33.61227680968374</v>
+        <v>30.26992536866286</v>
       </c>
       <c r="G18">
-        <v>45.08606693626019</v>
+        <v>32.39457190214168</v>
       </c>
       <c r="H18">
-        <v>11.78203526536411</v>
+        <v>13.86970875867027</v>
       </c>
       <c r="I18">
-        <v>22.06803574640593</v>
+        <v>20.56348847637524</v>
       </c>
       <c r="J18">
-        <v>6.878797337286829</v>
+        <v>9.697014745871316</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568364</v>
       </c>
       <c r="O18">
-        <v>23.23733502573335</v>
+        <v>21.90171041309424</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.470693112458533</v>
+        <v>2.906669560475217</v>
       </c>
       <c r="D19">
-        <v>7.123808288403814</v>
+        <v>9.971286264311066</v>
       </c>
       <c r="E19">
-        <v>11.84886355731061</v>
+        <v>14.02707165926451</v>
       </c>
       <c r="F19">
-        <v>33.47833279761066</v>
+        <v>30.23946905090525</v>
       </c>
       <c r="G19">
-        <v>44.88359901160397</v>
+        <v>32.33072133737637</v>
       </c>
       <c r="H19">
-        <v>11.74547387241235</v>
+        <v>13.8650190696841</v>
       </c>
       <c r="I19">
-        <v>21.98203029518855</v>
+        <v>20.54500899855116</v>
       </c>
       <c r="J19">
-        <v>6.864012024254627</v>
+        <v>9.69641868259675</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985786</v>
       </c>
       <c r="O19">
-        <v>23.14738441112933</v>
+        <v>21.88276895557809</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.528000336623291</v>
+        <v>2.92954306496494</v>
       </c>
       <c r="D20">
-        <v>7.193334322913453</v>
+        <v>9.974921073813031</v>
       </c>
       <c r="E20">
-        <v>12.01447615145659</v>
+        <v>14.04746525924713</v>
       </c>
       <c r="F20">
-        <v>34.07887221445839</v>
+        <v>30.37680882686276</v>
       </c>
       <c r="G20">
-        <v>45.79015177396801</v>
+        <v>32.61765809388397</v>
       </c>
       <c r="H20">
-        <v>11.90977904535752</v>
+        <v>13.88630562597045</v>
       </c>
       <c r="I20">
-        <v>22.39019177689181</v>
+        <v>20.62838693071205</v>
       </c>
       <c r="J20">
-        <v>6.93066482675347</v>
+        <v>9.699213729356158</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484618</v>
       </c>
       <c r="O20">
-        <v>23.55080515219726</v>
+        <v>21.96824522223603</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.714890785914143</v>
+        <v>3.004537420118898</v>
       </c>
       <c r="D21">
-        <v>7.428197867124616</v>
+        <v>9.989094762572753</v>
       </c>
       <c r="E21">
-        <v>12.56696178404828</v>
+        <v>14.11928363092784</v>
       </c>
       <c r="F21">
-        <v>36.05742367895793</v>
+        <v>30.84279504255863</v>
       </c>
       <c r="G21">
-        <v>48.75662148378941</v>
+        <v>33.57375216391713</v>
       </c>
       <c r="H21">
-        <v>12.45764748616696</v>
+        <v>13.96097758055038</v>
       </c>
       <c r="I21">
-        <v>23.86546588236267</v>
+        <v>20.91210723109223</v>
       </c>
       <c r="J21">
-        <v>7.15658619376357</v>
+        <v>9.710571706527952</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>25.00905170003671</v>
+        <v>22.25935424026509</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.832835519422236</v>
+        <v>3.052129177597336</v>
       </c>
       <c r="D22">
-        <v>7.582519391076348</v>
+        <v>9.999811063477832</v>
       </c>
       <c r="E22">
-        <v>12.92485678615651</v>
+        <v>14.16863180903648</v>
       </c>
       <c r="F22">
-        <v>37.341502561288</v>
+        <v>31.15023604654358</v>
       </c>
       <c r="G22">
-        <v>50.63712463582459</v>
+        <v>34.19149596608521</v>
       </c>
       <c r="H22">
-        <v>12.81236990013812</v>
+        <v>14.01207827847189</v>
       </c>
       <c r="I22">
-        <v>24.79874479607462</v>
+        <v>21.09991615645727</v>
       </c>
       <c r="J22">
-        <v>7.30563644504467</v>
+        <v>9.719454015011911</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>25.98516069471105</v>
+        <v>22.45224346823413</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.770269083298007</v>
+        <v>3.026860887910664</v>
       </c>
       <c r="D23">
-        <v>7.500086427487693</v>
+        <v>9.993959217700151</v>
       </c>
       <c r="E23">
-        <v>12.73414566257036</v>
+        <v>14.14207635031675</v>
       </c>
       <c r="F23">
-        <v>36.64937182461419</v>
+        <v>30.98591603218996</v>
       </c>
       <c r="G23">
-        <v>49.63872647881492</v>
+        <v>33.86251865599016</v>
       </c>
       <c r="H23">
-        <v>12.62336543567105</v>
+        <v>13.98459795704715</v>
       </c>
       <c r="I23">
-        <v>24.30342115359992</v>
+        <v>20.9994796571583</v>
       </c>
       <c r="J23">
-        <v>7.225961667110578</v>
+        <v>9.714580309249394</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110912574</v>
       </c>
       <c r="O23">
-        <v>25.46703131878363</v>
+        <v>22.34907260818606</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.524874591350803</v>
+        <v>2.928293850742859</v>
       </c>
       <c r="D24">
-        <v>7.189511189462841</v>
+        <v>9.974714068218688</v>
       </c>
       <c r="E24">
-        <v>12.00539562201054</v>
+        <v>14.04633281295986</v>
       </c>
       <c r="F24">
-        <v>34.04604008312823</v>
+        <v>30.36924842973586</v>
       </c>
       <c r="G24">
-        <v>45.7406690655536</v>
+        <v>32.60192779189882</v>
       </c>
       <c r="H24">
-        <v>11.90077118874002</v>
+        <v>13.88512468607979</v>
       </c>
       <c r="I24">
-        <v>22.36554869303667</v>
+        <v>20.62379400570166</v>
       </c>
       <c r="J24">
-        <v>6.926996908864677</v>
+        <v>9.699052822652378</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188672</v>
       </c>
       <c r="O24">
-        <v>23.52874141759721</v>
+        <v>21.96353579133695</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.242080730805536</v>
+        <v>2.816118648598807</v>
       </c>
       <c r="D25">
-        <v>6.858871763527999</v>
+        <v>9.960247339920642</v>
       </c>
       <c r="E25">
-        <v>11.20743622755187</v>
+        <v>13.95370903001434</v>
       </c>
       <c r="F25">
-        <v>31.1136397507079</v>
+        <v>29.71968912420405</v>
       </c>
       <c r="G25">
-        <v>41.29163668466556</v>
+        <v>31.21943570676743</v>
       </c>
       <c r="H25">
-        <v>11.10870712198572</v>
+        <v>13.78801584276746</v>
       </c>
       <c r="I25">
-        <v>20.46547460942268</v>
+        <v>20.23064075146675</v>
       </c>
       <c r="J25">
-        <v>6.611065087486054</v>
+        <v>9.688610579383477</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>21.56227230135707</v>
+        <v>21.56084013990475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_247/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.728779965065642</v>
+        <v>3.01830434477924</v>
       </c>
       <c r="D2">
-        <v>9.95505111298154</v>
+        <v>6.620229661256154</v>
       </c>
       <c r="E2">
-        <v>13.89494703328383</v>
+        <v>10.61239528769859</v>
       </c>
       <c r="F2">
-        <v>29.25823648110417</v>
+        <v>28.85219515414981</v>
       </c>
       <c r="G2">
-        <v>30.1911326577861</v>
+        <v>37.87341623851967</v>
       </c>
       <c r="H2">
-        <v>13.72557788070845</v>
+        <v>10.51728261889961</v>
       </c>
       <c r="I2">
-        <v>19.95349761985225</v>
+        <v>19.0189675250093</v>
       </c>
       <c r="J2">
-        <v>9.686377412883518</v>
+        <v>6.384824624882675</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>21.27759823122737</v>
+        <v>20.05235905720541</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.666799860447807</v>
+        <v>2.857039250758709</v>
       </c>
       <c r="D3">
-        <v>9.954949846502856</v>
+        <v>6.462129323808033</v>
       </c>
       <c r="E3">
-        <v>13.86112943064488</v>
+        <v>10.20636324410625</v>
       </c>
       <c r="F3">
-        <v>28.95767149847613</v>
+        <v>27.26030740263417</v>
       </c>
       <c r="G3">
-        <v>29.49286781126834</v>
+        <v>35.42990448592809</v>
       </c>
       <c r="H3">
-        <v>13.68904849605218</v>
+        <v>10.11321037569583</v>
       </c>
       <c r="I3">
-        <v>19.77431705042589</v>
+        <v>18.0035827344899</v>
       </c>
       <c r="J3">
-        <v>9.688278086992334</v>
+        <v>6.235949303479291</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>21.09485627290016</v>
+        <v>18.9938232905898</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.627431768047288</v>
+        <v>2.75334687605625</v>
       </c>
       <c r="D4">
-        <v>9.956579151903831</v>
+        <v>6.367076552053294</v>
       </c>
       <c r="E4">
-        <v>13.84336193971557</v>
+        <v>9.95649064351605</v>
       </c>
       <c r="F4">
-        <v>28.77966669272912</v>
+        <v>26.25594742751549</v>
       </c>
       <c r="G4">
-        <v>29.06527682824506</v>
+        <v>33.86835228270284</v>
       </c>
       <c r="H4">
-        <v>13.66951148769116</v>
+        <v>9.864287591452143</v>
       </c>
       <c r="I4">
-        <v>19.66886519832054</v>
+        <v>17.36442663110327</v>
       </c>
       <c r="J4">
-        <v>9.691131607468559</v>
+        <v>6.146908840304343</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>20.98749649895068</v>
+        <v>18.32816807732669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.611069552182935</v>
+        <v>2.70993019326997</v>
       </c>
       <c r="D5">
-        <v>9.957669060315016</v>
+        <v>6.328886422871275</v>
       </c>
       <c r="E5">
-        <v>13.83687981959222</v>
+        <v>9.854659493346434</v>
       </c>
       <c r="F5">
-        <v>28.70885334558064</v>
+        <v>25.8403364379205</v>
       </c>
       <c r="G5">
-        <v>28.89160399499856</v>
+        <v>33.21693920657469</v>
       </c>
       <c r="H5">
-        <v>13.66228266299906</v>
+        <v>9.762778365619235</v>
       </c>
       <c r="I5">
-        <v>19.62708502643778</v>
+        <v>17.10031926337342</v>
       </c>
       <c r="J5">
-        <v>9.692718850239771</v>
+        <v>6.111247485312891</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>20.94500837609291</v>
+        <v>18.05327615779909</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.608333649158011</v>
+        <v>2.702651258575702</v>
       </c>
       <c r="D6">
-        <v>9.957875779935625</v>
+        <v>6.322578938776011</v>
       </c>
       <c r="E6">
-        <v>13.83584939071642</v>
+        <v>9.837754390663413</v>
       </c>
       <c r="F6">
-        <v>28.69720128737304</v>
+        <v>25.77095740532553</v>
       </c>
       <c r="G6">
-        <v>28.86280889360314</v>
+        <v>33.10787442546766</v>
       </c>
       <c r="H6">
-        <v>13.66112671683065</v>
+        <v>9.745922751498192</v>
       </c>
       <c r="I6">
-        <v>19.62022071728637</v>
+        <v>17.05625427117023</v>
       </c>
       <c r="J6">
-        <v>9.693008050396317</v>
+        <v>6.105364391627598</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>20.93803069423352</v>
+        <v>18.0074217265355</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.627212380297049</v>
+        <v>2.752766022986788</v>
       </c>
       <c r="D7">
-        <v>9.956592125435105</v>
+        <v>6.366559253275751</v>
       </c>
       <c r="E7">
-        <v>13.84327144362124</v>
+        <v>9.955117147258372</v>
       </c>
       <c r="F7">
-        <v>28.77870459204133</v>
+        <v>26.25036730603511</v>
       </c>
       <c r="G7">
-        <v>29.06293190951466</v>
+        <v>33.85962758738853</v>
       </c>
       <c r="H7">
-        <v>13.66941102414877</v>
+        <v>9.862918702051248</v>
       </c>
       <c r="I7">
-        <v>19.66829685213405</v>
+        <v>17.36087910448861</v>
       </c>
       <c r="J7">
-        <v>9.691151294850247</v>
+        <v>6.146425338673979</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>20.9869183243332</v>
+        <v>18.32447502819152</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.707687640181533</v>
+        <v>2.963677718188859</v>
       </c>
       <c r="D8">
-        <v>9.954665546593931</v>
+        <v>6.565318774935622</v>
       </c>
       <c r="E8">
-        <v>13.88266783122267</v>
+        <v>10.47259086615178</v>
       </c>
       <c r="F8">
-        <v>29.15329252787406</v>
+        <v>28.3091414055698</v>
       </c>
       <c r="G8">
-        <v>29.950302168238</v>
+        <v>37.04376220425385</v>
       </c>
       <c r="H8">
-        <v>13.71238573299217</v>
+        <v>10.37820560952629</v>
       </c>
       <c r="I8">
-        <v>19.89079580457227</v>
+        <v>18.67228608560894</v>
       </c>
       <c r="J8">
-        <v>9.686682972881471</v>
+        <v>6.333017074689827</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>21.21361027950495</v>
+        <v>19.69080847895362</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.854662956744316</v>
+        <v>3.33976239201426</v>
       </c>
       <c r="D9">
-        <v>9.964275670941229</v>
+        <v>6.969579337927365</v>
       </c>
       <c r="E9">
-        <v>13.98346104558476</v>
+        <v>11.47761199451968</v>
       </c>
       <c r="F9">
-        <v>29.9361084707968</v>
+        <v>32.11775253144933</v>
       </c>
       <c r="G9">
-        <v>31.68738879936571</v>
+        <v>42.8174730685209</v>
       </c>
       <c r="H9">
-        <v>13.8193383253815</v>
+        <v>11.37700402919464</v>
       </c>
       <c r="I9">
-        <v>20.36128806603421</v>
+        <v>21.10900330445734</v>
       </c>
       <c r="J9">
-        <v>9.69128245322317</v>
+        <v>6.716553357526386</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>21.6945572092241</v>
+        <v>22.23465122632573</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.955520451787607</v>
+        <v>3.592900570135188</v>
       </c>
       <c r="D10">
-        <v>9.979444865072566</v>
+        <v>7.273507493216121</v>
       </c>
       <c r="E10">
-        <v>14.07149579450354</v>
+        <v>12.20422737727704</v>
       </c>
       <c r="F10">
-        <v>30.53555718835969</v>
+        <v>34.76252830440129</v>
       </c>
       <c r="G10">
-        <v>32.94627397956579</v>
+        <v>46.81852508120304</v>
       </c>
       <c r="H10">
-        <v>13.91133742855725</v>
+        <v>12.09798671128305</v>
       </c>
       <c r="I10">
-        <v>20.72490527758725</v>
+        <v>22.90207015745622</v>
       </c>
       <c r="J10">
-        <v>9.702772822597744</v>
+        <v>7.007655839283336</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>22.06723566228217</v>
+        <v>24.01044357112182</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.999759994391921</v>
+        <v>3.703025682569725</v>
       </c>
       <c r="D11">
-        <v>9.988091451713284</v>
+        <v>7.412928717274165</v>
       </c>
       <c r="E11">
-        <v>14.11448837401471</v>
+        <v>12.53134290468664</v>
       </c>
       <c r="F11">
-        <v>30.81242098004964</v>
+        <v>35.93092614583596</v>
       </c>
       <c r="G11">
-        <v>33.51218979878003</v>
+        <v>48.56781543318605</v>
       </c>
       <c r="H11">
-        <v>13.95600390532045</v>
+        <v>12.42233708356172</v>
       </c>
       <c r="I11">
-        <v>20.89357776281312</v>
+        <v>23.77168449878256</v>
       </c>
       <c r="J11">
-        <v>9.709750526752845</v>
+        <v>7.141863981665272</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>22.24033131613683</v>
+        <v>24.91099990436166</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.016269201105819</v>
+        <v>3.744006840130574</v>
       </c>
       <c r="D12">
-        <v>9.99161515712877</v>
+        <v>7.465867320854426</v>
       </c>
       <c r="E12">
-        <v>14.13118312209874</v>
+        <v>12.65466980240418</v>
       </c>
       <c r="F12">
-        <v>30.91776706014782</v>
+        <v>36.36833471619279</v>
       </c>
       <c r="G12">
-        <v>33.7252850667158</v>
+        <v>49.22021957899885</v>
       </c>
       <c r="H12">
-        <v>13.97331327431802</v>
+        <v>12.54459009523789</v>
       </c>
       <c r="I12">
-        <v>20.95786339543769</v>
+        <v>24.09567632065687</v>
       </c>
       <c r="J12">
-        <v>9.712643302057842</v>
+        <v>7.192926126009795</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>22.30633505977262</v>
+        <v>25.24977125361464</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.012724581529373</v>
+        <v>3.735212813971886</v>
       </c>
       <c r="D13">
-        <v>9.990845198871178</v>
+        <v>7.454460030975135</v>
       </c>
       <c r="E13">
-        <v>14.12756933111594</v>
+        <v>12.62813401308822</v>
       </c>
       <c r="F13">
-        <v>30.89505801903289</v>
+        <v>36.27435514181227</v>
       </c>
       <c r="G13">
-        <v>33.67944830912114</v>
+        <v>49.08015483548107</v>
       </c>
       <c r="H13">
-        <v>13.96956797943543</v>
+        <v>12.51828673948847</v>
       </c>
       <c r="I13">
-        <v>20.94400085894364</v>
+        <v>24.02613314549879</v>
       </c>
       <c r="J13">
-        <v>9.712009173622972</v>
+        <v>7.181918490618154</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>22.29210058217868</v>
+        <v>25.17704951483896</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.001123133745236</v>
+        <v>3.706411652678317</v>
       </c>
       <c r="D14">
-        <v>9.988376360225654</v>
+        <v>7.417281268591133</v>
       </c>
       <c r="E14">
-        <v>14.11585361043715</v>
+        <v>12.54150023392132</v>
       </c>
       <c r="F14">
-        <v>30.82107831877407</v>
+        <v>35.96701304135384</v>
       </c>
       <c r="G14">
-        <v>33.52974669752561</v>
+        <v>48.62168866903937</v>
       </c>
       <c r="H14">
-        <v>13.95742009621922</v>
+        <v>12.43240658657627</v>
       </c>
       <c r="I14">
-        <v>20.8988586244736</v>
+        <v>23.79844525107939</v>
       </c>
       <c r="J14">
-        <v>9.709983505264406</v>
+        <v>7.146060151337442</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>22.24575266440345</v>
+        <v>24.93897859258989</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.99398501318458</v>
+        <v>3.688676341745887</v>
       </c>
       <c r="D15">
-        <v>9.98689655637731</v>
+        <v>7.394526158688181</v>
       </c>
       <c r="E15">
-        <v>14.10873107781528</v>
+        <v>12.48836236854869</v>
       </c>
       <c r="F15">
-        <v>30.77582637344956</v>
+        <v>35.77810063811484</v>
       </c>
       <c r="G15">
-        <v>33.43788660025945</v>
+        <v>48.33956662729518</v>
       </c>
       <c r="H15">
-        <v>13.9500303268308</v>
+        <v>12.37972692247996</v>
       </c>
       <c r="I15">
-        <v>20.8712598241902</v>
+        <v>23.65829170988337</v>
       </c>
       <c r="J15">
-        <v>9.708775302607048</v>
+        <v>7.124126798992052</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549384</v>
       </c>
       <c r="O15">
-        <v>22.21742096087996</v>
+        <v>24.79245205224953</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.952595627114936</v>
+        <v>3.585602589316262</v>
       </c>
       <c r="D16">
-        <v>9.978914788577089</v>
+        <v>7.264417194384213</v>
       </c>
       <c r="E16">
-        <v>14.0687446273984</v>
+        <v>12.18277582493663</v>
       </c>
       <c r="F16">
-        <v>30.51753921407916</v>
+        <v>34.68546684134784</v>
       </c>
       <c r="G16">
-        <v>32.90913378270817</v>
+        <v>46.70279318402737</v>
       </c>
       <c r="H16">
-        <v>13.90847420835358</v>
+        <v>12.07671199039504</v>
       </c>
       <c r="I16">
-        <v>20.71394298549198</v>
+        <v>22.84448884775813</v>
       </c>
       <c r="J16">
-        <v>9.702351936432436</v>
+        <v>6.998919436322342</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>22.05599035625912</v>
+        <v>23.95861358525181</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.926778821510825</v>
+        <v>3.521083121594072</v>
       </c>
       <c r="D17">
-        <v>9.974464323503957</v>
+        <v>7.184878557800915</v>
       </c>
       <c r="E17">
-        <v>14.04496227410564</v>
+        <v>11.99438839207366</v>
       </c>
       <c r="F17">
-        <v>30.36008846342321</v>
+        <v>34.00622708797606</v>
       </c>
       <c r="G17">
-        <v>32.582859400511</v>
+        <v>45.68065310065519</v>
       </c>
       <c r="H17">
-        <v>13.88369529259143</v>
+        <v>11.8898519008285</v>
       </c>
       <c r="I17">
-        <v>20.61822981597834</v>
+        <v>22.3356582867435</v>
       </c>
       <c r="J17">
-        <v>9.698858949691031</v>
+        <v>6.922552786803125</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.9381421901699</v>
+        <v>29.88120505119272</v>
       </c>
       <c r="O17">
-        <v>21.95783059923031</v>
+        <v>23.50198769474109</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.911775614143865</v>
+        <v>3.483499617647218</v>
       </c>
       <c r="D18">
-        <v>9.972068990275975</v>
+        <v>7.139240671749911</v>
       </c>
       <c r="E18">
-        <v>14.03156109064439</v>
+        <v>11.88571250309466</v>
       </c>
       <c r="F18">
-        <v>30.26992536866286</v>
+        <v>33.61227680968376</v>
       </c>
       <c r="G18">
-        <v>32.39457190214168</v>
+        <v>45.08606693626018</v>
       </c>
       <c r="H18">
-        <v>13.86970875867027</v>
+        <v>11.78203526536409</v>
       </c>
       <c r="I18">
-        <v>20.56348847637524</v>
+        <v>22.06803574640595</v>
       </c>
       <c r="J18">
-        <v>9.697014745871316</v>
+        <v>6.878797337286797</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568364</v>
+        <v>29.56404287680425</v>
       </c>
       <c r="O18">
-        <v>21.90171041309424</v>
+        <v>23.23733502573337</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.906669560475217</v>
+        <v>3.470693112458512</v>
       </c>
       <c r="D19">
-        <v>9.971286264311066</v>
+        <v>7.123808288403796</v>
       </c>
       <c r="E19">
-        <v>14.02707165926451</v>
+        <v>11.84886355731058</v>
       </c>
       <c r="F19">
-        <v>30.23946905090525</v>
+        <v>33.47833279761069</v>
       </c>
       <c r="G19">
-        <v>32.33072133737637</v>
+        <v>44.88359901160403</v>
       </c>
       <c r="H19">
-        <v>13.8650190696841</v>
+        <v>11.74547387241234</v>
       </c>
       <c r="I19">
-        <v>20.54500899855116</v>
+        <v>21.98203029518856</v>
       </c>
       <c r="J19">
-        <v>9.69641868259675</v>
+        <v>6.864012024254616</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985786</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>21.88276895557809</v>
+        <v>23.14738441112935</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.92954306496494</v>
+        <v>3.528000336623298</v>
       </c>
       <c r="D20">
-        <v>9.974921073813031</v>
+        <v>7.193334322913429</v>
       </c>
       <c r="E20">
-        <v>14.04746525924713</v>
+        <v>12.01447615145656</v>
       </c>
       <c r="F20">
-        <v>30.37680882686276</v>
+        <v>34.07887221445839</v>
       </c>
       <c r="G20">
-        <v>32.61765809388397</v>
+        <v>45.79015177396803</v>
       </c>
       <c r="H20">
-        <v>13.88630562597045</v>
+        <v>11.90977904535754</v>
       </c>
       <c r="I20">
-        <v>20.62838693071205</v>
+        <v>22.39019177689182</v>
       </c>
       <c r="J20">
-        <v>9.699213729356158</v>
+        <v>6.930664826753481</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484618</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>21.96824522223603</v>
+        <v>23.55080515219725</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.004537420118898</v>
+        <v>3.714890785914017</v>
       </c>
       <c r="D21">
-        <v>9.989094762572753</v>
+        <v>7.428197867124596</v>
       </c>
       <c r="E21">
-        <v>14.11928363092784</v>
+        <v>12.56696178404831</v>
       </c>
       <c r="F21">
-        <v>30.84279504255863</v>
+        <v>36.05742367895793</v>
       </c>
       <c r="G21">
-        <v>33.57375216391713</v>
+        <v>48.75662148378942</v>
       </c>
       <c r="H21">
-        <v>13.96097758055038</v>
+        <v>12.45764748616697</v>
       </c>
       <c r="I21">
-        <v>20.91210723109223</v>
+        <v>23.86546588236266</v>
       </c>
       <c r="J21">
-        <v>9.710571706527952</v>
+        <v>7.156586193763594</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>22.25935424026509</v>
+        <v>25.0090517000367</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.052129177597336</v>
+        <v>3.832835519422174</v>
       </c>
       <c r="D22">
-        <v>9.999811063477832</v>
+        <v>7.582519391076328</v>
       </c>
       <c r="E22">
-        <v>14.16863180903648</v>
+        <v>12.92485678615651</v>
       </c>
       <c r="F22">
-        <v>31.15023604654358</v>
+        <v>37.341502561288</v>
       </c>
       <c r="G22">
-        <v>34.19149596608521</v>
+        <v>50.63712463582463</v>
       </c>
       <c r="H22">
-        <v>14.01207827847189</v>
+        <v>12.81236990013812</v>
       </c>
       <c r="I22">
-        <v>21.09991615645727</v>
+        <v>24.79874479607463</v>
       </c>
       <c r="J22">
-        <v>9.719454015011911</v>
+        <v>7.305636445044675</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>22.45224346823413</v>
+        <v>25.98516069471106</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.026860887910664</v>
+        <v>3.770269083298021</v>
       </c>
       <c r="D23">
-        <v>9.993959217700151</v>
+        <v>7.500086427487661</v>
       </c>
       <c r="E23">
-        <v>14.14207635031675</v>
+        <v>12.73414566257038</v>
       </c>
       <c r="F23">
-        <v>30.98591603218996</v>
+        <v>36.6493718246142</v>
       </c>
       <c r="G23">
-        <v>33.86251865599016</v>
+        <v>49.63872647881488</v>
       </c>
       <c r="H23">
-        <v>13.98459795704715</v>
+        <v>12.62336543567103</v>
       </c>
       <c r="I23">
-        <v>20.9994796571583</v>
+        <v>24.30342115359993</v>
       </c>
       <c r="J23">
-        <v>9.714580309249394</v>
+        <v>7.225961667110599</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110912574</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>22.34907260818606</v>
+        <v>25.46703131878363</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.928293850742859</v>
+        <v>3.524874591350883</v>
       </c>
       <c r="D24">
-        <v>9.974714068218688</v>
+        <v>7.189511189462778</v>
       </c>
       <c r="E24">
-        <v>14.04633281295986</v>
+        <v>12.00539562201052</v>
       </c>
       <c r="F24">
-        <v>30.36924842973586</v>
+        <v>34.04604008312822</v>
       </c>
       <c r="G24">
-        <v>32.60192779189882</v>
+        <v>45.74066906555355</v>
       </c>
       <c r="H24">
-        <v>13.88512468607979</v>
+        <v>11.90077118874004</v>
       </c>
       <c r="I24">
-        <v>20.62379400570166</v>
+        <v>22.36554869303663</v>
       </c>
       <c r="J24">
-        <v>9.699052822652378</v>
+        <v>6.926996908864702</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188672</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>21.96353579133695</v>
+        <v>23.52874141759721</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.816118648598807</v>
+        <v>3.242080730805436</v>
       </c>
       <c r="D25">
-        <v>9.960247339920642</v>
+        <v>6.858871763527874</v>
       </c>
       <c r="E25">
-        <v>13.95370903001434</v>
+        <v>11.20743622755183</v>
       </c>
       <c r="F25">
-        <v>29.71968912420405</v>
+        <v>31.1136397507079</v>
       </c>
       <c r="G25">
-        <v>31.21943570676743</v>
+        <v>41.29163668466558</v>
       </c>
       <c r="H25">
-        <v>13.78801584276746</v>
+        <v>11.10870712198576</v>
       </c>
       <c r="I25">
-        <v>20.23064075146675</v>
+        <v>20.46547460942269</v>
       </c>
       <c r="J25">
-        <v>9.688610579383477</v>
+        <v>6.611065087486069</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>21.56084013990475</v>
+        <v>21.56227230135709</v>
       </c>
     </row>
   </sheetData>
